--- a/bin/Debug/net6.0-windows/Source/salary.xlsx
+++ b/bin/Debug/net6.0-windows/Source/salary.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,7 +340,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
